--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cfh-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cfh-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.176084</v>
+        <v>0.4564253333333334</v>
       </c>
       <c r="H2">
-        <v>0.5282520000000001</v>
+        <v>1.369276</v>
       </c>
       <c r="I2">
-        <v>0.002540394622276418</v>
+        <v>0.009290313076622009</v>
       </c>
       <c r="J2">
-        <v>0.002540394622276418</v>
+        <v>0.009290313076622009</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01571566666666667</v>
+        <v>1.180996</v>
       </c>
       <c r="N2">
-        <v>0.047147</v>
+        <v>3.542988</v>
       </c>
       <c r="O2">
-        <v>4.352450124452221E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P2">
-        <v>4.352450124452222E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q2">
-        <v>0.002767277449333333</v>
+        <v>0.5390364929653334</v>
       </c>
       <c r="R2">
-        <v>0.024905497044</v>
+        <v>4.851328436688</v>
       </c>
       <c r="S2">
-        <v>1.105694088988475E-07</v>
+        <v>2.01057768529629E-05</v>
       </c>
       <c r="T2">
-        <v>1.105694088988475E-07</v>
+        <v>2.01057768529629E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.176084</v>
+        <v>0.4564253333333334</v>
       </c>
       <c r="H3">
-        <v>0.5282520000000001</v>
+        <v>1.369276</v>
       </c>
       <c r="I3">
-        <v>0.002540394622276418</v>
+        <v>0.009290313076622009</v>
       </c>
       <c r="J3">
-        <v>0.002540394622276418</v>
+        <v>0.009290313076622009</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>121.5707266666667</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N3">
-        <v>364.71218</v>
+        <v>0.047147</v>
       </c>
       <c r="O3">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P3">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q3">
-        <v>21.40665983437333</v>
+        <v>0.00717302839688889</v>
       </c>
       <c r="R3">
-        <v>192.65993850936</v>
+        <v>0.06455725557200001</v>
       </c>
       <c r="S3">
-        <v>0.0008553250506036454</v>
+        <v>2.675501755260368E-07</v>
       </c>
       <c r="T3">
-        <v>0.0008553250506036454</v>
+        <v>2.675501755260368E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.176084</v>
+        <v>0.4564253333333334</v>
       </c>
       <c r="H4">
-        <v>0.5282520000000001</v>
+        <v>1.369276</v>
       </c>
       <c r="I4">
-        <v>0.002540394622276418</v>
+        <v>0.009290313076622009</v>
       </c>
       <c r="J4">
-        <v>0.002540394622276418</v>
+        <v>0.009290313076622009</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>159.017985</v>
+        <v>209.770696</v>
       </c>
       <c r="N4">
-        <v>477.053955</v>
+        <v>629.312088</v>
       </c>
       <c r="O4">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P4">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q4">
-        <v>28.00052287074001</v>
+        <v>95.74465984536536</v>
       </c>
       <c r="R4">
-        <v>252.00470583666</v>
+        <v>861.7019386082882</v>
       </c>
       <c r="S4">
-        <v>0.001118789611580957</v>
+        <v>0.003571225308186241</v>
       </c>
       <c r="T4">
-        <v>0.001118789611580957</v>
+        <v>0.003571225308186241</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.176084</v>
+        <v>0.4564253333333334</v>
       </c>
       <c r="H5">
-        <v>0.5282520000000001</v>
+        <v>1.369276</v>
       </c>
       <c r="I5">
-        <v>0.002540394622276418</v>
+        <v>0.009290313076622009</v>
       </c>
       <c r="J5">
-        <v>0.002540394622276418</v>
+        <v>0.009290313076622009</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.47189100000001</v>
+        <v>196.552851</v>
       </c>
       <c r="N5">
-        <v>241.415673</v>
+        <v>589.658553</v>
       </c>
       <c r="O5">
-        <v>0.2228667096514236</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P5">
-        <v>0.2228667096514236</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q5">
-        <v>14.169812454844</v>
+        <v>89.71170053529201</v>
       </c>
       <c r="R5">
-        <v>127.528312093596</v>
+        <v>807.4053048176281</v>
       </c>
       <c r="S5">
-        <v>0.0005661693906829164</v>
+        <v>0.00334619910822701</v>
       </c>
       <c r="T5">
-        <v>0.0005661693906829164</v>
+        <v>0.00334619910822701</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.034054</v>
+        <v>0.4564253333333334</v>
       </c>
       <c r="H6">
-        <v>36.102162</v>
+        <v>1.369276</v>
       </c>
       <c r="I6">
-        <v>0.1736173988879399</v>
+        <v>0.009290313076622009</v>
       </c>
       <c r="J6">
-        <v>0.1736173988879399</v>
+        <v>0.009290313076622009</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01571566666666667</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N6">
-        <v>0.047147</v>
+        <v>414.554168</v>
       </c>
       <c r="O6">
-        <v>4.352450124452221E-05</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P6">
-        <v>4.352450124452222E-05</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q6">
-        <v>0.1891231813126666</v>
+        <v>63.07100810470756</v>
       </c>
       <c r="R6">
-        <v>1.702108631814</v>
+        <v>567.6390729423681</v>
       </c>
       <c r="S6">
-        <v>7.55661069396885E-06</v>
+        <v>0.002352515333180269</v>
       </c>
       <c r="T6">
-        <v>7.556610693968852E-06</v>
+        <v>0.002352515333180269</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>36.102162</v>
       </c>
       <c r="I7">
-        <v>0.1736173988879399</v>
+        <v>0.2449472478323772</v>
       </c>
       <c r="J7">
-        <v>0.1736173988879399</v>
+        <v>0.2449472478323772</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>121.5707266666667</v>
+        <v>1.180996</v>
       </c>
       <c r="N7">
-        <v>364.71218</v>
+        <v>3.542988</v>
       </c>
       <c r="O7">
-        <v>0.3366898367298536</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P7">
-        <v>0.3366898367298536</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q7">
-        <v>1462.988689525906</v>
+        <v>14.212169637784</v>
       </c>
       <c r="R7">
-        <v>13166.89820573316</v>
+        <v>127.909526740056</v>
       </c>
       <c r="S7">
-        <v>0.05845521368504237</v>
+        <v>0.0005301064307572153</v>
       </c>
       <c r="T7">
-        <v>0.05845521368504237</v>
+        <v>0.0005301064307572154</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>36.102162</v>
       </c>
       <c r="I8">
-        <v>0.1736173988879399</v>
+        <v>0.2449472478323772</v>
       </c>
       <c r="J8">
-        <v>0.1736173988879399</v>
+        <v>0.2449472478323772</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>159.017985</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N8">
-        <v>477.053955</v>
+        <v>0.047147</v>
       </c>
       <c r="O8">
-        <v>0.4403999291174782</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P8">
-        <v>0.4403999291174782</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q8">
-        <v>1913.63101846119</v>
+        <v>0.1891231813126666</v>
       </c>
       <c r="R8">
-        <v>17222.67916615071</v>
+        <v>1.702108631814</v>
       </c>
       <c r="S8">
-        <v>0.07646109016380968</v>
+        <v>7.054194902977496E-06</v>
       </c>
       <c r="T8">
-        <v>0.07646109016380968</v>
+        <v>7.054194902977497E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>36.102162</v>
       </c>
       <c r="I9">
-        <v>0.1736173988879399</v>
+        <v>0.2449472478323772</v>
       </c>
       <c r="J9">
-        <v>0.1736173988879399</v>
+        <v>0.2449472478323772</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.47189100000001</v>
+        <v>209.770696</v>
       </c>
       <c r="N9">
-        <v>241.415673</v>
+        <v>629.312088</v>
       </c>
       <c r="O9">
-        <v>0.2228667096514236</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P9">
-        <v>0.2228667096514236</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q9">
-        <v>968.4030817761142</v>
+        <v>2524.391883281584</v>
       </c>
       <c r="R9">
-        <v>8715.627735985026</v>
+        <v>22719.52694953426</v>
       </c>
       <c r="S9">
-        <v>0.03869353842839391</v>
+        <v>0.09415848566296318</v>
       </c>
       <c r="T9">
-        <v>0.0386935384283939</v>
+        <v>0.0941584856629632</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.40023333333333</v>
+        <v>12.034054</v>
       </c>
       <c r="H10">
-        <v>43.2007</v>
+        <v>36.102162</v>
       </c>
       <c r="I10">
-        <v>0.207754681399364</v>
+        <v>0.2449472478323772</v>
       </c>
       <c r="J10">
-        <v>0.207754681399364</v>
+        <v>0.2449472478323772</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01571566666666667</v>
+        <v>196.552851</v>
       </c>
       <c r="N10">
-        <v>0.047147</v>
+        <v>589.658553</v>
       </c>
       <c r="O10">
-        <v>4.352450124452221E-05</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P10">
-        <v>4.352450124452222E-05</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q10">
-        <v>0.2263092669888889</v>
+        <v>2365.327622787954</v>
       </c>
       <c r="R10">
-        <v>2.0367834029</v>
+        <v>21287.94860509158</v>
       </c>
       <c r="S10">
-        <v>9.042418889121934E-06</v>
+        <v>0.08822547265085129</v>
       </c>
       <c r="T10">
-        <v>9.042418889121934E-06</v>
+        <v>0.08822547265085129</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.40023333333333</v>
+        <v>12.034054</v>
       </c>
       <c r="H11">
-        <v>43.2007</v>
+        <v>36.102162</v>
       </c>
       <c r="I11">
-        <v>0.207754681399364</v>
+        <v>0.2449472478323772</v>
       </c>
       <c r="J11">
-        <v>0.207754681399364</v>
+        <v>0.2449472478323772</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>121.5707266666667</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N11">
-        <v>364.71218</v>
+        <v>414.554168</v>
       </c>
       <c r="O11">
-        <v>0.3366898367298536</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P11">
-        <v>0.3366898367298536</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q11">
-        <v>1750.646830502889</v>
+        <v>1662.922414545691</v>
       </c>
       <c r="R11">
-        <v>15755.821474526</v>
+        <v>14966.30173091122</v>
       </c>
       <c r="S11">
-        <v>0.06994888976021463</v>
+        <v>0.06202612889290254</v>
       </c>
       <c r="T11">
-        <v>0.06994888976021463</v>
+        <v>0.06202612889290255</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.40023333333333</v>
+        <v>20.326383</v>
       </c>
       <c r="H12">
-        <v>43.2007</v>
+        <v>60.97914900000001</v>
       </c>
       <c r="I12">
-        <v>0.207754681399364</v>
+        <v>0.4137335243997426</v>
       </c>
       <c r="J12">
-        <v>0.207754681399364</v>
+        <v>0.4137335243997426</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>159.017985</v>
+        <v>1.180996</v>
       </c>
       <c r="N12">
-        <v>477.053955</v>
+        <v>3.542988</v>
       </c>
       <c r="O12">
-        <v>0.4403999291174782</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P12">
-        <v>0.4403999291174782</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q12">
-        <v>2289.8960881965</v>
+        <v>24.005377017468</v>
       </c>
       <c r="R12">
-        <v>20609.0647937685</v>
+        <v>216.048393157212</v>
       </c>
       <c r="S12">
-        <v>0.09149514696210419</v>
+        <v>0.0008953879002316377</v>
       </c>
       <c r="T12">
-        <v>0.09149514696210417</v>
+        <v>0.0008953879002316377</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.40023333333333</v>
+        <v>20.326383</v>
       </c>
       <c r="H13">
-        <v>43.2007</v>
+        <v>60.97914900000001</v>
       </c>
       <c r="I13">
-        <v>0.207754681399364</v>
+        <v>0.4137335243997426</v>
       </c>
       <c r="J13">
-        <v>0.207754681399364</v>
+        <v>0.4137335243997426</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>80.47189100000001</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N13">
-        <v>241.415673</v>
+        <v>0.047147</v>
       </c>
       <c r="O13">
-        <v>0.2228667096514236</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P13">
-        <v>0.2228667096514236</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q13">
-        <v>1158.814007174567</v>
+        <v>0.319442659767</v>
       </c>
       <c r="R13">
-        <v>10429.3260645711</v>
+        <v>2.874983937903</v>
       </c>
       <c r="S13">
-        <v>0.04630160225815608</v>
+        <v>1.191504270751722E-05</v>
       </c>
       <c r="T13">
-        <v>0.04630160225815607</v>
+        <v>1.191504270751722E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.02875833333333</v>
+        <v>20.326383</v>
       </c>
       <c r="H14">
-        <v>51.086275</v>
+        <v>60.97914900000001</v>
       </c>
       <c r="I14">
-        <v>0.2456768706642553</v>
+        <v>0.4137335243997426</v>
       </c>
       <c r="J14">
-        <v>0.2456768706642553</v>
+        <v>0.4137335243997426</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.01571566666666667</v>
+        <v>209.770696</v>
       </c>
       <c r="N14">
-        <v>0.047147</v>
+        <v>629.312088</v>
       </c>
       <c r="O14">
-        <v>4.352450124452221E-05</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P14">
-        <v>4.352450124452222E-05</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q14">
-        <v>0.2676182897138888</v>
+        <v>4263.879509072569</v>
       </c>
       <c r="R14">
-        <v>2.408564607425</v>
+        <v>38374.91558165312</v>
       </c>
       <c r="S14">
-        <v>1.06929632629767E-05</v>
+        <v>0.1590404565481756</v>
       </c>
       <c r="T14">
-        <v>1.06929632629767E-05</v>
+        <v>0.1590404565481756</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.02875833333333</v>
+        <v>20.326383</v>
       </c>
       <c r="H15">
-        <v>51.086275</v>
+        <v>60.97914900000001</v>
       </c>
       <c r="I15">
-        <v>0.2456768706642553</v>
+        <v>0.4137335243997426</v>
       </c>
       <c r="J15">
-        <v>0.2456768706642553</v>
+        <v>0.4137335243997426</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>121.5707266666667</v>
+        <v>196.552851</v>
       </c>
       <c r="N15">
-        <v>364.71218</v>
+        <v>589.658553</v>
       </c>
       <c r="O15">
-        <v>0.3366898367298536</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P15">
-        <v>0.3366898367298536</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q15">
-        <v>2070.198524814389</v>
+        <v>3995.208529167934</v>
       </c>
       <c r="R15">
-        <v>18631.7867233295</v>
+        <v>35956.8767625114</v>
       </c>
       <c r="S15">
-        <v>0.0827169054722495</v>
+        <v>0.1490191707181328</v>
       </c>
       <c r="T15">
-        <v>0.0827169054722495</v>
+        <v>0.1490191707181328</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.02875833333333</v>
+        <v>20.326383</v>
       </c>
       <c r="H16">
-        <v>51.086275</v>
+        <v>60.97914900000001</v>
       </c>
       <c r="I16">
-        <v>0.2456768706642553</v>
+        <v>0.4137335243997426</v>
       </c>
       <c r="J16">
-        <v>0.2456768706642553</v>
+        <v>0.4137335243997426</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>159.017985</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N16">
-        <v>477.053955</v>
+        <v>414.554168</v>
       </c>
       <c r="O16">
-        <v>0.4403999291174782</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P16">
-        <v>0.4403999291174782</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q16">
-        <v>2707.878837218625</v>
+        <v>2808.795597671448</v>
       </c>
       <c r="R16">
-        <v>24370.90953496763</v>
+        <v>25279.16037904303</v>
       </c>
       <c r="S16">
-        <v>0.1081960764263419</v>
+        <v>0.104766594190495</v>
       </c>
       <c r="T16">
-        <v>0.1081960764263419</v>
+        <v>0.104766594190495</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.02875833333333</v>
+        <v>1.967920333333333</v>
       </c>
       <c r="H17">
-        <v>51.086275</v>
+        <v>5.903761</v>
       </c>
       <c r="I17">
-        <v>0.2456768706642553</v>
+        <v>0.04005605007284947</v>
       </c>
       <c r="J17">
-        <v>0.2456768706642553</v>
+        <v>0.04005605007284947</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>80.47189100000001</v>
+        <v>1.180996</v>
       </c>
       <c r="N17">
-        <v>241.415673</v>
+        <v>3.542988</v>
       </c>
       <c r="O17">
-        <v>0.2228667096514236</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P17">
-        <v>0.2228667096514236</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q17">
-        <v>1370.336384465342</v>
+        <v>2.324106041985333</v>
       </c>
       <c r="R17">
-        <v>12333.02746018808</v>
+        <v>20.916954377868</v>
       </c>
       <c r="S17">
-        <v>0.05475319580240094</v>
+        <v>8.668792943075399E-05</v>
       </c>
       <c r="T17">
-        <v>0.05475319580240093</v>
+        <v>8.668792943075399E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.476923</v>
+        <v>1.967920333333333</v>
       </c>
       <c r="H18">
-        <v>16.430769</v>
+        <v>5.903761</v>
       </c>
       <c r="I18">
-        <v>0.07901652470310776</v>
+        <v>0.04005605007284947</v>
       </c>
       <c r="J18">
-        <v>0.07901652470310774</v>
+        <v>0.04005605007284947</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1559,27 +1559,27 @@
         <v>0.047147</v>
       </c>
       <c r="O18">
-        <v>4.352450124452221E-05</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P18">
-        <v>4.352450124452222E-05</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q18">
-        <v>0.086073496227</v>
+        <v>0.03092717998522222</v>
       </c>
       <c r="R18">
-        <v>0.7746614660430001</v>
+        <v>0.278344619867</v>
       </c>
       <c r="S18">
-        <v>3.439154827778234E-06</v>
+        <v>1.153567499769053E-06</v>
       </c>
       <c r="T18">
-        <v>3.439154827778234E-06</v>
+        <v>1.153567499769053E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.476923</v>
+        <v>1.967920333333333</v>
       </c>
       <c r="H19">
-        <v>16.430769</v>
+        <v>5.903761</v>
       </c>
       <c r="I19">
-        <v>0.07901652470310776</v>
+        <v>0.04005605007284947</v>
       </c>
       <c r="J19">
-        <v>0.07901652470310774</v>
+        <v>0.04005605007284947</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>121.5707266666667</v>
+        <v>209.770696</v>
       </c>
       <c r="N19">
-        <v>364.71218</v>
+        <v>629.312088</v>
       </c>
       <c r="O19">
-        <v>0.3366898367298536</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P19">
-        <v>0.3366898367298536</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q19">
-        <v>665.83350900738</v>
+        <v>412.8120179958854</v>
       </c>
       <c r="R19">
-        <v>5992.50158106642</v>
+        <v>3715.308161962968</v>
       </c>
       <c r="S19">
-        <v>0.0266040608012498</v>
+        <v>0.01539767051834905</v>
       </c>
       <c r="T19">
-        <v>0.02660406080124979</v>
+        <v>0.01539767051834905</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.476923</v>
+        <v>1.967920333333333</v>
       </c>
       <c r="H20">
-        <v>16.430769</v>
+        <v>5.903761</v>
       </c>
       <c r="I20">
-        <v>0.07901652470310776</v>
+        <v>0.04005605007284947</v>
       </c>
       <c r="J20">
-        <v>0.07901652470310774</v>
+        <v>0.04005605007284947</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>159.017985</v>
+        <v>196.552851</v>
       </c>
       <c r="N20">
-        <v>477.053955</v>
+        <v>589.658553</v>
       </c>
       <c r="O20">
-        <v>0.4403999291174782</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P20">
-        <v>0.4403999291174782</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q20">
-        <v>870.9292594601551</v>
+        <v>386.8003520575371</v>
       </c>
       <c r="R20">
-        <v>7838.363335141396</v>
+        <v>3481.203168517833</v>
       </c>
       <c r="S20">
-        <v>0.03479887187835812</v>
+        <v>0.01442744909965953</v>
       </c>
       <c r="T20">
-        <v>0.03479887187835812</v>
+        <v>0.01442744909965953</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.476923</v>
+        <v>1.967920333333333</v>
       </c>
       <c r="H21">
-        <v>16.430769</v>
+        <v>5.903761</v>
       </c>
       <c r="I21">
-        <v>0.07901652470310776</v>
+        <v>0.04005605007284947</v>
       </c>
       <c r="J21">
-        <v>0.07901652470310774</v>
+        <v>0.04005605007284947</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>80.47189100000001</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N21">
-        <v>241.415673</v>
+        <v>414.554168</v>
       </c>
       <c r="O21">
-        <v>0.2228667096514236</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P21">
-        <v>0.2228667096514236</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q21">
-        <v>440.7383506713931</v>
+        <v>271.9365254917609</v>
       </c>
       <c r="R21">
-        <v>3966.645156042538</v>
+        <v>2447.428729425848</v>
       </c>
       <c r="S21">
-        <v>0.01761015286867206</v>
+        <v>0.01014308895791037</v>
       </c>
       <c r="T21">
-        <v>0.01761015286867205</v>
+        <v>0.01014308895791037</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.197588</v>
+        <v>2.948245666666667</v>
       </c>
       <c r="H22">
-        <v>60.592764</v>
+        <v>8.844737</v>
       </c>
       <c r="I22">
-        <v>0.2913941297230567</v>
+        <v>0.06001008986528831</v>
       </c>
       <c r="J22">
-        <v>0.2913941297230566</v>
+        <v>0.06001008986528831</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.01571566666666667</v>
+        <v>1.180996</v>
       </c>
       <c r="N22">
-        <v>0.047147</v>
+        <v>3.542988</v>
       </c>
       <c r="O22">
-        <v>4.352450124452221E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P22">
-        <v>4.352450124452222E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q22">
-        <v>0.3174185604786666</v>
+        <v>3.481866339350667</v>
       </c>
       <c r="R22">
-        <v>2.856767044308</v>
+        <v>31.336797054156</v>
       </c>
       <c r="S22">
-        <v>1.268278416177765E-05</v>
+        <v>0.0001298717778191866</v>
       </c>
       <c r="T22">
-        <v>1.268278416177765E-05</v>
+        <v>0.0001298717778191866</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,51 +1845,51 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.197588</v>
+        <v>2.948245666666667</v>
       </c>
       <c r="H23">
-        <v>60.592764</v>
+        <v>8.844737</v>
       </c>
       <c r="I23">
-        <v>0.2913941297230567</v>
+        <v>0.06001008986528831</v>
       </c>
       <c r="J23">
-        <v>0.2913941297230566</v>
+        <v>0.06001008986528831</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>121.5707266666667</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N23">
-        <v>364.71218</v>
+        <v>0.047147</v>
       </c>
       <c r="O23">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P23">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q23">
-        <v>2455.435450073946</v>
+        <v>0.04633364614877777</v>
       </c>
       <c r="R23">
-        <v>22098.91905066552</v>
+        <v>0.417002815339</v>
       </c>
       <c r="S23">
-        <v>0.09810944196049375</v>
+        <v>1.728220560961875E-06</v>
       </c>
       <c r="T23">
-        <v>0.09810944196049372</v>
+        <v>1.728220560961875E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.197588</v>
+        <v>2.948245666666667</v>
       </c>
       <c r="H24">
-        <v>60.592764</v>
+        <v>8.844737</v>
       </c>
       <c r="I24">
-        <v>0.2913941297230567</v>
+        <v>0.06001008986528831</v>
       </c>
       <c r="J24">
-        <v>0.2913941297230566</v>
+        <v>0.06001008986528831</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,90 +1925,462 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>159.017985</v>
+        <v>209.770696</v>
       </c>
       <c r="N24">
-        <v>477.053955</v>
+        <v>629.312088</v>
       </c>
       <c r="O24">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P24">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q24">
-        <v>3211.77974562018</v>
+        <v>618.4555454756508</v>
       </c>
       <c r="R24">
-        <v>28906.01771058162</v>
+        <v>5566.099909280856</v>
       </c>
       <c r="S24">
-        <v>0.1283299540752834</v>
+        <v>0.02306806561909451</v>
       </c>
       <c r="T24">
-        <v>0.1283299540752834</v>
+        <v>0.02306806561909451</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.948245666666667</v>
+      </c>
+      <c r="H25">
+        <v>8.844737</v>
+      </c>
+      <c r="I25">
+        <v>0.06001008986528831</v>
+      </c>
+      <c r="J25">
+        <v>0.06001008986528831</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>196.552851</v>
+      </c>
+      <c r="N25">
+        <v>589.658553</v>
+      </c>
+      <c r="O25">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="P25">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="Q25">
+        <v>579.486091231729</v>
+      </c>
+      <c r="R25">
+        <v>5215.374821085561</v>
+      </c>
+      <c r="S25">
+        <v>0.02161452553166961</v>
+      </c>
+      <c r="T25">
+        <v>0.02161452553166961</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.948245666666667</v>
+      </c>
+      <c r="H26">
+        <v>8.844737</v>
+      </c>
+      <c r="I26">
+        <v>0.06001008986528831</v>
+      </c>
+      <c r="J26">
+        <v>0.06001008986528831</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>138.1847226666667</v>
+      </c>
+      <c r="N26">
+        <v>414.554168</v>
+      </c>
+      <c r="O26">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="P26">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="Q26">
+        <v>407.4025098015351</v>
+      </c>
+      <c r="R26">
+        <v>3666.622588213816</v>
+      </c>
+      <c r="S26">
+        <v>0.01519589871614404</v>
+      </c>
+      <c r="T26">
+        <v>0.01519589871614404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>20.197588</v>
-      </c>
-      <c r="H25">
-        <v>60.592764</v>
-      </c>
-      <c r="I25">
-        <v>0.2913941297230567</v>
-      </c>
-      <c r="J25">
-        <v>0.2913941297230566</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>80.47189100000001</v>
-      </c>
-      <c r="N25">
-        <v>241.415673</v>
-      </c>
-      <c r="O25">
-        <v>0.2228667096514236</v>
-      </c>
-      <c r="P25">
-        <v>0.2228667096514236</v>
-      </c>
-      <c r="Q25">
-        <v>1625.338099998908</v>
-      </c>
-      <c r="R25">
-        <v>14628.04289999017</v>
-      </c>
-      <c r="S25">
-        <v>0.06494205090311775</v>
-      </c>
-      <c r="T25">
-        <v>0.06494205090311772</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>11.39613766666667</v>
+      </c>
+      <c r="H27">
+        <v>34.188413</v>
+      </c>
+      <c r="I27">
+        <v>0.2319627747531205</v>
+      </c>
+      <c r="J27">
+        <v>0.2319627747531205</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>1.180996</v>
+      </c>
+      <c r="N27">
+        <v>3.542988</v>
+      </c>
+      <c r="O27">
+        <v>0.002164165694647767</v>
+      </c>
+      <c r="P27">
+        <v>0.002164165694647767</v>
+      </c>
+      <c r="Q27">
+        <v>13.45879299978267</v>
+      </c>
+      <c r="R27">
+        <v>121.129136998044</v>
+      </c>
+      <c r="S27">
+        <v>0.0005020058795560105</v>
+      </c>
+      <c r="T27">
+        <v>0.0005020058795560105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>11.39613766666667</v>
+      </c>
+      <c r="H28">
+        <v>34.188413</v>
+      </c>
+      <c r="I28">
+        <v>0.2319627747531205</v>
+      </c>
+      <c r="J28">
+        <v>0.2319627747531205</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.01571566666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.047147</v>
+      </c>
+      <c r="O28">
+        <v>2.87988330769278E-05</v>
+      </c>
+      <c r="P28">
+        <v>2.87988330769278E-05</v>
+      </c>
+      <c r="Q28">
+        <v>0.1790979008567778</v>
+      </c>
+      <c r="R28">
+        <v>1.611881107711</v>
+      </c>
+      <c r="S28">
+        <v>6.68025723017612E-06</v>
+      </c>
+      <c r="T28">
+        <v>6.680257230176119E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>11.39613766666667</v>
+      </c>
+      <c r="H29">
+        <v>34.188413</v>
+      </c>
+      <c r="I29">
+        <v>0.2319627747531205</v>
+      </c>
+      <c r="J29">
+        <v>0.2319627747531205</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>209.770696</v>
+      </c>
+      <c r="N29">
+        <v>629.312088</v>
+      </c>
+      <c r="O29">
+        <v>0.3844031173903938</v>
+      </c>
+      <c r="P29">
+        <v>0.3844031173903938</v>
+      </c>
+      <c r="Q29">
+        <v>2390.575730048483</v>
+      </c>
+      <c r="R29">
+        <v>21515.18157043634</v>
+      </c>
+      <c r="S29">
+        <v>0.08916721373362527</v>
+      </c>
+      <c r="T29">
+        <v>0.08916721373362527</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>11.39613766666667</v>
+      </c>
+      <c r="H30">
+        <v>34.188413</v>
+      </c>
+      <c r="I30">
+        <v>0.2319627747531205</v>
+      </c>
+      <c r="J30">
+        <v>0.2319627747531205</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>196.552851</v>
+      </c>
+      <c r="N30">
+        <v>589.658553</v>
+      </c>
+      <c r="O30">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="P30">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="Q30">
+        <v>2239.943348771821</v>
+      </c>
+      <c r="R30">
+        <v>20159.49013894639</v>
+      </c>
+      <c r="S30">
+        <v>0.08354870536860115</v>
+      </c>
+      <c r="T30">
+        <v>0.08354870536860115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>11.39613766666667</v>
+      </c>
+      <c r="H31">
+        <v>34.188413</v>
+      </c>
+      <c r="I31">
+        <v>0.2319627747531205</v>
+      </c>
+      <c r="J31">
+        <v>0.2319627747531205</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>138.1847226666667</v>
+      </c>
+      <c r="N31">
+        <v>414.554168</v>
+      </c>
+      <c r="O31">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="P31">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="Q31">
+        <v>1574.772122939487</v>
+      </c>
+      <c r="R31">
+        <v>14172.94910645538</v>
+      </c>
+      <c r="S31">
+        <v>0.05873816951410791</v>
+      </c>
+      <c r="T31">
+        <v>0.0587381695141079</v>
       </c>
     </row>
   </sheetData>
